--- a/impactbasedtesting/results/git_changes/changes.xlsx
+++ b/impactbasedtesting/results/git_changes/changes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -566,6 +566,28 @@
       </c>
       <c r="C12" t="inlineStr"/>
     </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>names.py</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>suite.conf</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/impactbasedtesting/results/git_changes/changes.xlsx
+++ b/impactbasedtesting/results/git_changes/changes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>app.py</t>
+          <t>dummy-checkpoint.ipynb</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -484,7 +484,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TC1StartApplication.csv</t>
+          <t>app.py</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -495,7 +495,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TC2SaveFile.csv</t>
+          <t>TC1StartApplication.csv</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -506,7 +506,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TC3RibbonTabs.csv</t>
+          <t>TC2SaveFile.csv</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -517,7 +517,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>database.py</t>
+          <t>TC3RibbonTabs.csv</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -528,7 +528,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>generate_coverage_report.py</t>
+          <t>database.py</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -539,7 +539,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>requirements.txt</t>
+          <t>dummy.ipynb</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -550,7 +550,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>suggest_test_cases.py</t>
+          <t>generate_coverage_report.py</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -561,7 +561,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>test.py</t>
+          <t>requirements.txt</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -572,7 +572,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>names.py</t>
+          <t>suggest_test_cases.py</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -583,10 +583,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>test.py</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>names.py</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
           <t>suite.conf</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/impactbasedtesting/results/git_changes/changes.xlsx
+++ b/impactbasedtesting/results/git_changes/changes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,164 +451,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>.gitattributes</t>
+          <t>textedit.cpp</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
-          <t>.gitignore</t>
+          <t>":/images";</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>dummy-checkpoint.ipynb</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>app.py</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>TC1StartApplication.csv</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>TC2SaveFile.csv</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>TC3RibbonTabs.csv</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>database.py</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>dummy.ipynb</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>generate_coverage_report.py</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>requirements.txt</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>suggest_test_cases.py</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>test.py</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>names.py</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>suite.conf</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/impactbasedtesting/results/git_changes/changes.xlsx
+++ b/impactbasedtesting/results/git_changes/changes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,12 +451,23 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>database.py</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>textedit.cpp</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
-          <t>":/images";</t>
+          <t>TextEdit::closeEvent</t>
         </is>
       </c>
     </row>

--- a/impactbasedtesting/results/git_changes/changes.xlsx
+++ b/impactbasedtesting/results/git_changes/changes.xlsx
@@ -454,7 +454,11 @@
           <t>database.py</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>"\\impactbasedtesting\\results"</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -467,7 +471,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>TextEdit::closeEvent</t>
+          <t>TextEdit::setupFileActions</t>
         </is>
       </c>
     </row>
